--- a/BBA_1_Information_Technology_For_Business/BBA Labs 2026.xlsx
+++ b/BBA_1_Information_Technology_For_Business/BBA Labs 2026.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMUHD\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A3EB34-578E-4139-A26E-F68BB429422D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1644F59A-6A9E-42E3-A666-B555838CAFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="300" windowWidth="18825" windowHeight="9600" activeTab="1" xr2:uid="{624DD40B-21C6-402B-82E0-2585288EBD5B}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="15390" windowHeight="9600" firstSheet="1" activeTab="3" xr2:uid="{624DD40B-21C6-402B-82E0-2585288EBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab 1" sheetId="1" r:id="rId1"/>
     <sheet name="Lab 1 Questions" sheetId="3" r:id="rId2"/>
     <sheet name="Lab 2 Annapurna" sheetId="2" r:id="rId3"/>
+    <sheet name="Lab 2 questuions" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>A</t>
   </si>
@@ -834,12 +835,150 @@
   <si>
     <t>"🎖️ Student of the Month: "&amp;INDEX(A2:A31, MATCH(MAX(L2:L31), L2:L31, 0))</t>
   </si>
+  <si>
+    <t>Grade1</t>
+  </si>
+  <si>
+    <t>Grade2</t>
+  </si>
+  <si>
+    <t>Mina</t>
+  </si>
+  <si>
+    <t>Gita</t>
+  </si>
+  <si>
+    <t>Rittu</t>
+  </si>
+  <si>
+    <t>Nita</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Jamuna</t>
+  </si>
+  <si>
+    <t>Misti</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Ram Traders</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Sita Store</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Hari Suppliers</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Gagan Traders</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Kriti Dealers</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>Adds all sales values.</t>
+  </si>
+  <si>
+    <t>Average Sale</t>
+  </si>
+  <si>
+    <t>Average of all sales.</t>
+  </si>
+  <si>
+    <t>Highest Sale (Max)</t>
+  </si>
+  <si>
+    <t>Finds the largest total.</t>
+  </si>
+  <si>
+    <t>Lowest Sale (Min)</t>
+  </si>
+  <si>
+    <t>Finds the smallest total.</t>
+  </si>
+  <si>
+    <t>Total Quantity Sold</t>
+  </si>
+  <si>
+    <t>Adds all quantities.</t>
+  </si>
+  <si>
+    <t>Count of Transactions</t>
+  </si>
+  <si>
+    <t>Counts customers (non-blank).</t>
+  </si>
+  <si>
+    <t>SUM(F8:F12)</t>
+  </si>
+  <si>
+    <t>AVERAGE(F8:F12)</t>
+  </si>
+  <si>
+    <t>MAX(F8:F12)</t>
+  </si>
+  <si>
+    <t>MIN(F8:F12)</t>
+  </si>
+  <si>
+    <t>SUM(D8:D12)</t>
+  </si>
+  <si>
+    <t>COUNTA(B8:B12)</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,6 +1130,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1012,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1047,9 +1191,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1061,10 +1202,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1119,6 +1256,18 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1454,26 +1603,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31864ED3-6069-4EA8-8EDB-7E99023F76B5}">
-  <dimension ref="A3:K22"/>
+  <dimension ref="A3:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="12" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="30.5703125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="75">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="75">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1504,8 +1655,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1">
-      <c r="B4" s="14"/>
+    <row r="4" spans="1:13" s="8" customFormat="1">
+      <c r="B4" s="13"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1516,8 +1667,8 @@
       <c r="J4" s="1"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1">
-      <c r="B5" s="14"/>
+    <row r="5" spans="1:13" s="8" customFormat="1">
+      <c r="B5" s="13"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1528,21 +1679,21 @@
       <c r="J5" s="1"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="21">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="21">
+      <c r="B6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="18.75">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="18.75">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1576,12 +1727,18 @@
       <c r="K7" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="10" customFormat="1">
+      <c r="L7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="10" customFormat="1">
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="10">
@@ -1619,12 +1776,30 @@
    IF(I8&gt;=35,"Third","Fail")))))</f>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="10" t="str">
+        <f>IF(I8&gt;=90,"A+",
+   IF(I8&gt;=80,"A",
+   IF(I8&gt;=70,"A-",
+   IF(I8&gt;=60,"B+",
+   IF(I8&gt;=50,"B",
+   IF(I8&gt;=40,"C","D"))))))</f>
+        <v>B</v>
+      </c>
+      <c r="M8" s="10">
+        <f>IF(I8&gt;=90,4,
+   IF(I8&gt;=80,3.7,
+   IF(I8&gt;=70,3.3,
+   IF(I8&gt;=60,3,
+   IF(I8&gt;=50,2.7,
+   IF(I8&gt;=40,2,1))))))</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C9">
@@ -1662,12 +1837,30 @@
    IF(I9&gt;=35,"Third","Fail")))))</f>
         <v>Distinction</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="10" t="str">
+        <f t="shared" ref="L9:L22" si="4">IF(I9&gt;=90,"A+",
+   IF(I9&gt;=80,"A",
+   IF(I9&gt;=70,"A-",
+   IF(I9&gt;=60,"B+",
+   IF(I9&gt;=50,"B",
+   IF(I9&gt;=40,"C","D"))))))</f>
+        <v>A</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" ref="M9:M23" si="5">IF(I9&gt;=90,4,
+   IF(I9&gt;=80,3.7,
+   IF(I9&gt;=70,3.3,
+   IF(I9&gt;=60,3,
+   IF(I9&gt;=50,2.7,
+   IF(I9&gt;=40,2,1))))))</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C10">
@@ -1701,27 +1894,35 @@
         <f t="shared" si="3"/>
         <v>First</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="17" customFormat="1">
+      <c r="L10" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>A-</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="5"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="2">
         <v>41</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="2">
         <v>38</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="2">
         <v>37</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="2">
         <v>51</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="2">
         <v>42</v>
       </c>
       <c r="H11" s="10">
@@ -1740,12 +1941,20 @@
         <f t="shared" si="3"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="10">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2">
@@ -1779,12 +1988,20 @@
         <f t="shared" si="3"/>
         <v>First</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>A-</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="5"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="2">
@@ -1818,12 +2035,20 @@
         <f t="shared" si="3"/>
         <v>Distinction</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="5"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="2">
@@ -1857,31 +2082,68 @@
         <f t="shared" si="3"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>8</v>
       </c>
+      <c r="B15" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="2">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2">
+        <v>60</v>
+      </c>
+      <c r="G15" s="2">
+        <v>60</v>
+      </c>
       <c r="H15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J15" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Fail</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>First</v>
+      </c>
+      <c r="L15" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>B+</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="10">
         <v>9</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
@@ -1899,10 +2161,21 @@
         <f t="shared" si="3"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>10</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
@@ -1920,12 +2193,20 @@
         <f t="shared" si="3"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="10">
         <v>11</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C18">
@@ -1959,25 +2240,83 @@
         <f t="shared" si="3"/>
         <v>First</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>B+</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="B19" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="10">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="B20" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="B21" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="10">
         <v>15</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="M23" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1993,7 +2332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E3ECDC-1CAA-478C-B7A4-579260A48068}">
   <dimension ref="C3:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
@@ -2008,83 +2347,83 @@
       </c>
     </row>
     <row r="11" spans="3:3" ht="24">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="20"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="3:3" ht="18">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="22"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="22"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="22"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="23"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="23"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="22"/>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="22"/>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="20"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="20"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="20"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="3:5" ht="18">
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="20"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2095,7 +2434,7 @@
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="23" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2106,7 +2445,7 @@
       </c>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2117,7 +2456,7 @@
       </c>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="23" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -2128,7 +2467,7 @@
       </c>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="23" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -2139,7 +2478,7 @@
       </c>
     </row>
     <row r="36" spans="3:5">
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="23" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2150,7 +2489,7 @@
       </c>
     </row>
     <row r="37" spans="3:5">
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2161,7 +2500,7 @@
       </c>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="23" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -2172,391 +2511,391 @@
       </c>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="20"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="20"/>
+      <c r="C40" s="17"/>
     </row>
     <row r="41" spans="3:5" ht="18">
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="3:5">
-      <c r="C42" s="20"/>
+      <c r="C42" s="17"/>
     </row>
     <row r="43" spans="3:5" ht="15.75">
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="20"/>
+      <c r="C44" s="17"/>
     </row>
     <row r="45" spans="3:5">
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="46" spans="3:5">
-      <c r="C46" s="28"/>
+      <c r="C46" s="25"/>
     </row>
     <row r="47" spans="3:5">
-      <c r="C47" s="29">
+      <c r="C47" s="26">
         <f>IF(I8&gt;=90,"A+",)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:5">
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="26" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="20"/>
+      <c r="C53" s="17"/>
     </row>
     <row r="54" spans="3:3" ht="15.75">
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="3:3">
-      <c r="C55" s="20"/>
+      <c r="C55" s="17"/>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="57" spans="3:3">
-      <c r="C57" s="28"/>
+      <c r="C57" s="25"/>
     </row>
     <row r="58" spans="3:3">
-      <c r="C58" s="29">
+      <c r="C58" s="26">
         <f>IF(I8&gt;=90,4,)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="3:3">
-      <c r="C64" s="20"/>
+      <c r="C64" s="17"/>
     </row>
     <row r="65" spans="3:3" ht="15.75">
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="20"/>
+      <c r="C66" s="17"/>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="28"/>
+      <c r="C68" s="25"/>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="26" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="20"/>
+      <c r="C70" s="17"/>
     </row>
     <row r="80" spans="3:3" ht="24">
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="31"/>
+      <c r="C81" s="28"/>
     </row>
     <row r="82" spans="3:3" ht="18">
-      <c r="C82" s="32" t="s">
+      <c r="C82" s="29" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="31"/>
+      <c r="C83" s="28"/>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="31" t="s">
+      <c r="C85" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="34"/>
+      <c r="C86" s="31"/>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="32" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="34"/>
+      <c r="C88" s="31"/>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="32" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="90" spans="3:3">
-      <c r="C90" s="31"/>
+      <c r="C90" s="28"/>
     </row>
     <row r="91" spans="3:3">
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="30" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="34"/>
+      <c r="C92" s="31"/>
     </row>
     <row r="93" spans="3:3">
-      <c r="C93" s="34" t="s">
+      <c r="C93" s="31" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="94" spans="3:3">
-      <c r="C94" s="34"/>
+      <c r="C94" s="31"/>
     </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="34" t="s">
+      <c r="C95" s="31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="34"/>
+      <c r="C96" s="31"/>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="31" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="98" spans="3:3">
-      <c r="C98" s="36"/>
+      <c r="C98" s="33"/>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="37" t="s">
+      <c r="C99" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="34"/>
+      <c r="C100" s="31"/>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="34" t="s">
+      <c r="C101" s="31" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="34"/>
+      <c r="C102" s="31"/>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="34" t="s">
+      <c r="C103" s="31" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="36"/>
+      <c r="C104" s="33"/>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="37" t="s">
+      <c r="C105" s="34" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="34"/>
+      <c r="C106" s="31"/>
     </row>
     <row r="107" spans="3:3">
-      <c r="C107" s="34" t="s">
+      <c r="C107" s="31" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" s="34"/>
+      <c r="C108" s="31"/>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="34" t="s">
+      <c r="C109" s="31" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="31"/>
+      <c r="C110" s="28"/>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="31"/>
+      <c r="C111" s="28"/>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="31"/>
+      <c r="C112" s="28"/>
     </row>
     <row r="113" spans="3:3" ht="18">
-      <c r="C113" s="32" t="s">
+      <c r="C113" s="29" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="31"/>
+      <c r="C114" s="28"/>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="33" t="s">
+      <c r="C115" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="116" spans="3:3">
-      <c r="C116" s="31" t="s">
+      <c r="C116" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="31"/>
+      <c r="C117" s="28"/>
     </row>
     <row r="118" spans="3:3">
-      <c r="C118" s="33" t="s">
+      <c r="C118" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="119" spans="3:3">
-      <c r="C119" s="36"/>
+      <c r="C119" s="33"/>
     </row>
     <row r="120" spans="3:3">
-      <c r="C120" s="37" t="s">
+      <c r="C120" s="34" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="121" spans="3:3">
-      <c r="C121" s="31"/>
+      <c r="C121" s="28"/>
     </row>
     <row r="122" spans="3:3">
-      <c r="C122" s="33" t="s">
+      <c r="C122" s="30" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" s="34"/>
+      <c r="C123" s="31"/>
     </row>
     <row r="124" spans="3:3">
-      <c r="C124" s="34" t="s">
+      <c r="C124" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="125" spans="3:3">
-      <c r="C125" s="34"/>
+      <c r="C125" s="31"/>
     </row>
     <row r="126" spans="3:3">
-      <c r="C126" s="34" t="s">
+      <c r="C126" s="31" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="127" spans="3:3">
-      <c r="C127" s="36"/>
+      <c r="C127" s="33"/>
     </row>
     <row r="128" spans="3:3">
-      <c r="C128" s="37" t="s">
+      <c r="C128" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="34"/>
+      <c r="C129" s="31"/>
     </row>
     <row r="130" spans="3:3">
-      <c r="C130" s="34" t="s">
+      <c r="C130" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="131" spans="3:3">
-      <c r="C131" s="36"/>
+      <c r="C131" s="33"/>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="37" t="s">
+      <c r="C132" s="34" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="34"/>
+      <c r="C133" s="31"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="34" t="s">
+      <c r="C134" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="34"/>
+      <c r="C135" s="31"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="34"/>
+      <c r="C136" s="31"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="38"/>
+      <c r="C137" s="35"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="38" t="s">
+      <c r="C138" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="38"/>
+      <c r="C139" s="35"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="38" t="s">
+      <c r="C140" s="35" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="38"/>
+      <c r="C141" s="35"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="38" t="s">
+      <c r="C142" s="35" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2567,12 +2906,252 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E698BB-3A20-4D76-8215-6C7E8708AAB0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="37">
+        <v>65000</v>
+      </c>
+      <c r="F2" s="38">
+        <f>D8*E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="37">
+        <v>12000</v>
+      </c>
+      <c r="F3" s="38">
+        <f>D9*E9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="37">
+        <v>15000</v>
+      </c>
+      <c r="F4" s="38">
+        <f>D10*E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>800</v>
+      </c>
+      <c r="F5" s="38">
+        <f>D11*E11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="37">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="38">
+        <f>D12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155D43CA-0668-4B8C-8201-3603815D8D73}">
+  <dimension ref="B3:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="30">
+      <c r="B3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30">
+      <c r="B9" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BBA_1_Information_Technology_For_Business/BBA Labs 2026.xlsx
+++ b/BBA_1_Information_Technology_For_Business/BBA Labs 2026.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMUHD\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1644F59A-6A9E-42E3-A666-B555838CAFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1810F54-62B3-434D-8461-DA0112C8D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="15390" windowHeight="9600" firstSheet="1" activeTab="3" xr2:uid="{624DD40B-21C6-402B-82E0-2585288EBD5B}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="17355" windowHeight="9600" firstSheet="4" activeTab="7" xr2:uid="{624DD40B-21C6-402B-82E0-2585288EBD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab 1" sheetId="1" r:id="rId1"/>
     <sheet name="Lab 1 Questions" sheetId="3" r:id="rId2"/>
     <sheet name="Lab 2 Annapurna" sheetId="2" r:id="rId3"/>
     <sheet name="Lab 2 questuions" sheetId="4" r:id="rId4"/>
+    <sheet name="Lab 3" sheetId="5" r:id="rId5"/>
+    <sheet name="Lab 3 Questions" sheetId="6" r:id="rId6"/>
+    <sheet name="Lab 4 Stat" sheetId="7" r:id="rId7"/>
+    <sheet name="Lab 4 Questions" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="343">
   <si>
     <t>A</t>
   </si>
@@ -973,12 +977,1208 @@
   <si>
     <t>Profit</t>
   </si>
+  <si>
+    <t>Business Name</t>
+  </si>
+  <si>
+    <t>Unit Price (Rs)</t>
+  </si>
+  <si>
+    <t>Discount (%)</t>
+  </si>
+  <si>
+    <t>Net Amount</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Payment Mode</t>
+  </si>
+  <si>
+    <t>Ram Electronics</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Sita Traders</t>
+  </si>
+  <si>
+    <t>Pokhara</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Gagan Suppliers</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Lalitpur</t>
+  </si>
+  <si>
+    <t>Hari Hardware</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>Butwal</t>
+  </si>
+  <si>
+    <t>Kriti Stationery</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>Biratnagar</t>
+  </si>
+  <si>
+    <t>Anish Mobile House</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Hetauda</t>
+  </si>
+  <si>
+    <t>Laxmi Furniture</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Dharan</t>
+  </si>
+  <si>
+    <t>Bibek Bakery</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>Janakpur</t>
+  </si>
+  <si>
+    <t>Mina Cloth Store</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>Chitwan</t>
+  </si>
+  <si>
+    <t>Niraj Book Center</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Dhangadhi</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>SUM(D8:D17)</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Monthly Income (Rs)</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Experience (Years)</t>
+  </si>
+  <si>
+    <t>Ram Shrestha</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Sita Thapa</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Gagan Gurung</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Kriti Pandey</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Hari Bhattarai</t>
+  </si>
+  <si>
+    <t>Niraj Karki</t>
+  </si>
+  <si>
+    <t>Anish Bista</t>
+  </si>
+  <si>
+    <t>Laxmi Poudel</t>
+  </si>
+  <si>
+    <t>Mina Lama</t>
+  </si>
+  <si>
+    <t>Bibek Sharma</t>
+  </si>
+  <si>
+    <t>Step 1: Compute Basic Statistical Measures</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Mean (Average)</t>
+  </si>
+  <si>
+    <t>Average monthly income</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Middle value of the incomes</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Most frequent income</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Variation in income</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Square of standard deviation</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Difference between highest and lowest income</t>
+  </si>
+  <si>
+    <t>Minimum Income</t>
+  </si>
+  <si>
+    <t>Lowest income</t>
+  </si>
+  <si>
+    <t>Maximum Income</t>
+  </si>
+  <si>
+    <t>Highest income</t>
+  </si>
+  <si>
+    <t>Count of Employees</t>
+  </si>
+  <si>
+    <t>Total valid entries</t>
+  </si>
+  <si>
+    <t>Sum of Incomes</t>
+  </si>
+  <si>
+    <t>Total monthly expenditure</t>
+  </si>
+  <si>
+    <t>AVERAGE(D8:D17)</t>
+  </si>
+  <si>
+    <t>MEDIAN(D8:D17)</t>
+  </si>
+  <si>
+    <t>MODE.SNGL(D8:D17)</t>
+  </si>
+  <si>
+    <t>STDEV.S(D8:D17)</t>
+  </si>
+  <si>
+    <t>VAR.S(D8:D17)</t>
+  </si>
+  <si>
+    <t>MAX(D8:D17)-MIN(D8:D17)</t>
+  </si>
+  <si>
+    <t>MIN(D8:D17)</t>
+  </si>
+  <si>
+    <t>MAX(D8:D17)</t>
+  </si>
+  <si>
+    <t>COUNT(D8:D17)</t>
+  </si>
+  <si>
+    <t>Quartile 1 (Q1)</t>
+  </si>
+  <si>
+    <t>25th percentile</t>
+  </si>
+  <si>
+    <t>Quartile 2 (Q2)</t>
+  </si>
+  <si>
+    <t>50th percentile = Median</t>
+  </si>
+  <si>
+    <t>Quartile 3 (Q3)</t>
+  </si>
+  <si>
+    <t>75th percentile</t>
+  </si>
+  <si>
+    <t>Interquartile Range (IQR)</t>
+  </si>
+  <si>
+    <t>Spread between Q1 and Q3</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Direction of data distribution</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Peakness of data distribution</t>
+  </si>
+  <si>
+    <t>Coefficient of Variation (CV)</t>
+  </si>
+  <si>
+    <t>Relative dispersion</t>
+  </si>
+  <si>
+    <t>Correlation (Income vs Age)</t>
+  </si>
+  <si>
+    <t>Relationship between income and age</t>
+  </si>
+  <si>
+    <t>Correlation (Income vs Experience)</t>
+  </si>
+  <si>
+    <t>Relationship between income and experience</t>
+  </si>
+  <si>
+    <t>Z-Score for First Income</t>
+  </si>
+  <si>
+    <t>How far the first data is from mean</t>
+  </si>
+  <si>
+    <t>QUARTILE.INC(D8:D17,1)</t>
+  </si>
+  <si>
+    <t>QUARTILE.INC(D8:D17,2)</t>
+  </si>
+  <si>
+    <t>QUARTILE.INC(D8:D17,3)</t>
+  </si>
+  <si>
+    <t>Q3-Q1</t>
+  </si>
+  <si>
+    <t>SKEW(D8:D17)</t>
+  </si>
+  <si>
+    <t>KURT(D8:D17)</t>
+  </si>
+  <si>
+    <t>(STDEV.S(D8:D17)/AVERAGE(D8:D17))*100</t>
+  </si>
+  <si>
+    <t>CORREL(D8:D17,E8:E17)</t>
+  </si>
+  <si>
+    <t>CORREL(D8:D17,F8:F17)</t>
+  </si>
+  <si>
+    <t>(D8-AVERAGE(D8:D17))/STDEV.S(D8:D17)</t>
+  </si>
+  <si>
+    <t>Step 2: Advanced Measures</t>
+  </si>
+  <si>
+    <t>20 Practice Questions for Students
+==============================================================
+What is the mean monthly income of all employees?
+Which employee earns the highest salary?
+Which employee has the lowest salary?
+What is the range of the monthly incomes?
+Find the median and explain its meaning.
+Is there any mode in the dataset?
+What is the standard deviation of the income distribution?
+Compute the variance of incomes.
+Calculate the total monthly salary expense of all 10 employees.
+What percentage variation (CV) exists between employees’ salaries?
+Find Quartile 1 (Q1), Quartile 2 (Median), and Quartile 3 (Q3).
+Compute the Interquartile Range (IQR) and interpret it.
+What is the skewness value? Is the data left or right skewed?
+What is the kurtosis value? Is the distribution flat or peaked?
+Is there a strong correlation between age and income?
+Is there a stronger correlation between experience and income?
+Which department has the highest average salary?
+(Hint: use Pivot Table → Rows: Department, Values: Average of Income)
+Calculate the Z-score for the first employee’s income.
+Identify all employees with income above the overall average using a conditional format.
+Create a Histogram chart of the monthly incomes and describe the shape of the distribution.</t>
+  </si>
+  <si>
+    <t>Part A – Calculation Practice</t>
+  </si>
+  <si>
+    <t>(Students should create formulas for these values.)</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Formula Example</t>
+  </si>
+  <si>
+    <t>1️⃣ Calculate Total Amount</t>
+  </si>
+  <si>
+    <t>Multiply Quantity × Unit Price</t>
+  </si>
+  <si>
+    <t>2️⃣ Calculate Net Amount</t>
+  </si>
+  <si>
+    <t>Apply discount to Total</t>
+  </si>
+  <si>
+    <t>3️⃣ Find Total Sales (All Businesses)</t>
+  </si>
+  <si>
+    <t>Sum of all Net Amounts</t>
+  </si>
+  <si>
+    <t>4️⃣ Average Net Sales</t>
+  </si>
+  <si>
+    <t>Find mean sales</t>
+  </si>
+  <si>
+    <t>5️⃣ Maximum Net Sale</t>
+  </si>
+  <si>
+    <t>Find highest sale</t>
+  </si>
+  <si>
+    <t>6️⃣ Minimum Net Sale</t>
+  </si>
+  <si>
+    <t>Find lowest sale</t>
+  </si>
+  <si>
+    <t>7️⃣ Range of Sales</t>
+  </si>
+  <si>
+    <t>Spread between top and bottom</t>
+  </si>
+  <si>
+    <t>8️⃣ Standard Deviation</t>
+  </si>
+  <si>
+    <t>Find sales variation</t>
+  </si>
+  <si>
+    <t>9️⃣ Count of Transactions</t>
+  </si>
+  <si>
+    <t>Count total business entries</t>
+  </si>
+  <si>
+    <t>🔟 Online Transactions</t>
+  </si>
+  <si>
+    <t>Count Online payments</t>
+  </si>
+  <si>
+    <t>D2*E2</t>
+  </si>
+  <si>
+    <t>F2-(F2*G2/100)</t>
+  </si>
+  <si>
+    <t>SUM(H2:H11)</t>
+  </si>
+  <si>
+    <t>AVERAGE(H2:H11)</t>
+  </si>
+  <si>
+    <t>MAX(H2:H11)</t>
+  </si>
+  <si>
+    <t>MIN(H2:H11)</t>
+  </si>
+  <si>
+    <t>MAX(H2:H11)-MIN(H2:H11)</t>
+  </si>
+  <si>
+    <t>STDEV.S(H2:H11)</t>
+  </si>
+  <si>
+    <t>COUNTA(B2:B11)</t>
+  </si>
+  <si>
+    <t>COUNTIF(J2:J11,"Online")</t>
+  </si>
+  <si>
+    <t>Part B – Chart Visualization</t>
+  </si>
+  <si>
+    <t>1️⃣ Histogram — Distribution of Net Sales
+Select H column (Net Amount) → Insert → Histogram
+Title: “Distribution of Net Sales Amount”
+Observe which bin has most transactions.</t>
+  </si>
+  <si>
+    <t>2️⃣ Column Chart — Compare Businesses</t>
+  </si>
+  <si>
+    <t>3️⃣ Pie Chart — Regional Sales Distribution</t>
+  </si>
+  <si>
+    <t>Insert → Pie → Show % labels</t>
+  </si>
+  <si>
+    <t>4️⃣ Bar Chart — Discount vs Net Amount</t>
+  </si>
+  <si>
+    <t>Insert → Bar chart</t>
+  </si>
+  <si>
+    <t>5️⃣ Scatter Plot — Unit Price vs Net Amount</t>
+  </si>
+  <si>
+    <t>Insert → Scatter Chart → Add Trendline</t>
+  </si>
+  <si>
+    <t>6️⃣ Combo Chart — Sales &amp; Discount Together</t>
+  </si>
+  <si>
+    <t>Insert → Combo → Line for Discount (%) and Column for Net Amount</t>
+  </si>
+  <si>
+    <t>7️⃣ Pivot Chart — Region-wise Total</t>
+  </si>
+  <si>
+    <t>Insert Pivot Table → Rows: Region, Values: Sum of Net Amount</t>
+  </si>
+  <si>
+    <t>Insert Chart → Column or Pie type.</t>
+  </si>
+  <si>
+    <t>Part C – 20 Student Questions</t>
+  </si>
+  <si>
+    <t>15. In the combo chart, how does discount % seem to affect sales visually?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>B column (Business Name)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>H column (Net Amount)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Insert → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Column Chart → Clustered Column</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Title: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“Net Sales by Business”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I column (Region)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>H column (Net Amount)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Title: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“Sales Distribution by Region”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>G column (Discount %)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>H column (Net Amount)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Title: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“Impact of Discount on Sales”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E column (Unit Price)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>H column (Net Amount)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Title: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“Relationship Between Unit Price and Sales”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Title: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“Sales vs Discount Trend”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📘 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Descriptive Questions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. What is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>average Net Amount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> across all businesses?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Which business achieved the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>highest Net Sale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Which business has the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lowest Net Sale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. What is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>difference (range)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> between highest and lowest sales?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. What is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>standard deviation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> of sales, and what does it indicate?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. How many </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>total businesses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> are listed?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. How many used </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Online payment mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. How many are from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kathmandu region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9. What is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>total discount percentage sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10. Which product got the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>maximum discount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📊 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chart &amp; Analytical Questions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11. In the histogram, which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Net Amount range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> has the most businesses?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12. In the column chart, which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>business</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> has the highest bar?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13. In the pie chart, which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> contributes most to total sales?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14. In the scatter plot, describe the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>relationship between Unit Price and Sales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16. Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>conditional formatting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to highlight </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Net Amount &gt; 20,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17. Calculate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Total Net Sales for Cash payments only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> using:</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1135,6 +2335,74 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1156,7 +2424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1257,9 +2525,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1268,6 +2533,83 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1623,7 +2965,7 @@
     <col min="13" max="13" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="75">
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="105">
       <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1680,18 +3022,18 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" ht="21">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="18.75">
       <c r="A7" s="4" t="s">
@@ -2962,10 +4304,10 @@
       <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>65000</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="37">
         <f>D8*E8</f>
         <v>0</v>
       </c>
@@ -2983,15 +4325,15 @@
       <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="36">
         <v>12000</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="37">
         <f>D9*E9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3004,15 +4346,15 @@
       <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>15000</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <f>D10*E10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3028,7 +4370,7 @@
       <c r="E5" s="2">
         <v>800</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <f>D11*E11</f>
         <v>0</v>
       </c>
@@ -3046,10 +4388,10 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>1200</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <f>D12*E12</f>
         <v>0</v>
       </c>
@@ -3063,7 +4405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155D43CA-0668-4B8C-8201-3603815D8D73}">
   <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3074,7 +4416,7 @@
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="30">
+    <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>123</v>
       </c>
@@ -3086,10 +4428,10 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3097,10 +4439,10 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3108,10 +4450,10 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3119,10 +4461,10 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>141</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -3130,10 +4472,10 @@
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>142</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3141,10 +4483,10 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="30">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>143</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3154,4 +4496,2215 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE5FC68-2D3A-4EDE-9E86-B63288BF6466}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="41"/>
+    <col min="2" max="2" width="30.42578125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="41"/>
+    <col min="4" max="4" width="12" style="41" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="41" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="41" customWidth="1"/>
+    <col min="9" max="9" width="17" style="41" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="41" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="45" customFormat="1">
+      <c r="A1" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+      <c r="E2" s="42">
+        <v>65000</v>
+      </c>
+      <c r="F2" s="43">
+        <f>D8*E8</f>
+        <v>25000</v>
+      </c>
+      <c r="G2" s="10">
+        <v>5</v>
+      </c>
+      <c r="H2" s="43">
+        <f t="shared" ref="H2:H5" si="0">F2-(F2*G2/100)</f>
+        <v>23750</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3</v>
+      </c>
+      <c r="E3" s="42">
+        <v>12000</v>
+      </c>
+      <c r="F3" s="43">
+        <f t="shared" ref="F3:F5" si="1">D9*E9</f>
+        <v>9600</v>
+      </c>
+      <c r="G3" s="10">
+        <v>10</v>
+      </c>
+      <c r="H3" s="43">
+        <f t="shared" si="0"/>
+        <v>8640</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="10">
+        <v>4</v>
+      </c>
+      <c r="E4" s="42">
+        <v>25000</v>
+      </c>
+      <c r="F4" s="43">
+        <f t="shared" si="1"/>
+        <v>10800</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5</v>
+      </c>
+      <c r="H4" s="43">
+        <f t="shared" si="0"/>
+        <v>10260</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="10">
+        <v>6</v>
+      </c>
+      <c r="E5" s="42">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="43">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G5" s="10">
+        <v>7</v>
+      </c>
+      <c r="H5" s="43">
+        <f t="shared" si="0"/>
+        <v>2790</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="10">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10">
+        <v>100</v>
+      </c>
+      <c r="F6" s="43">
+        <f>D6*E6</f>
+        <v>5000</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="43">
+        <f>F6-(F6*G6/100)</f>
+        <v>4900</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="10">
+        <v>5</v>
+      </c>
+      <c r="E7" s="42">
+        <v>28000</v>
+      </c>
+      <c r="F7" s="43">
+        <f t="shared" ref="F7:F21" si="2">D7*E7</f>
+        <v>140000</v>
+      </c>
+      <c r="G7" s="10">
+        <v>8</v>
+      </c>
+      <c r="H7" s="43">
+        <f t="shared" ref="H7:H21" si="3">F7-(F7*G7/100)</f>
+        <v>128800</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="10">
+        <v>10</v>
+      </c>
+      <c r="E8" s="42">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="43">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5</v>
+      </c>
+      <c r="H8" s="43">
+        <f t="shared" si="3"/>
+        <v>23750</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="10">
+        <v>8</v>
+      </c>
+      <c r="E9" s="42">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="43">
+        <f t="shared" si="2"/>
+        <v>9600</v>
+      </c>
+      <c r="G9" s="10">
+        <v>3</v>
+      </c>
+      <c r="H9" s="43">
+        <f t="shared" si="3"/>
+        <v>9312</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="10">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10">
+        <v>900</v>
+      </c>
+      <c r="F10" s="43">
+        <f t="shared" si="2"/>
+        <v>10800</v>
+      </c>
+      <c r="G10" s="10">
+        <v>6</v>
+      </c>
+      <c r="H10" s="43">
+        <f t="shared" si="3"/>
+        <v>10152</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="10">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10">
+        <v>150</v>
+      </c>
+      <c r="F11" s="43">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="G11" s="10">
+        <v>4</v>
+      </c>
+      <c r="H11" s="43">
+        <f t="shared" si="3"/>
+        <v>2880</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="F12" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="F13" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="F14" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="F15" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="F16" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="F17" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="F18" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="F19" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="F20" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="F21" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCACF8DE-B855-440E-AF32-1367B8E2D160}">
+  <dimension ref="A1:C150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="58" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30.75">
+      <c r="A1" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="25.5">
+      <c r="A11" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30.75">
+      <c r="A21" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="61"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="62"/>
+      <c r="C25" s="61"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="62"/>
+      <c r="C26" s="61"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="62"/>
+      <c r="C27" s="61"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="62"/>
+      <c r="C28" s="61"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="62"/>
+      <c r="C29" s="61"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="62"/>
+      <c r="C30" s="61"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="63" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="64"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="64" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="64"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="64" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="64"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="64" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="65" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="66"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="66" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="66"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="66" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="66"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="65" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="66"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="66" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="66"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="66" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="66"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="66" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="65" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="66"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="66" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="66"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="66" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="66"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="66" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="65" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="66"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="66" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="66"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="66" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="65" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="66"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="66"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30.75">
+      <c r="A113" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="B113" s="57"/>
+      <c r="C113" s="57"/>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B114" s="67" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="B115" s="66"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" s="66" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="B117" s="66"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="B118" s="66" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="B119" s="66"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="B120" s="66" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="B121" s="66"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="B122" s="66" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="B123" s="66"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="B124" s="66" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="B125" s="66"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="B126" s="66" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="B127" s="66"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="B128" s="66" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="66"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="66" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="66"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="66" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="66"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="66" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B136" s="67" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="66"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="66" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="66"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="66" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="66"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="66" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="66"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="66" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="66"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="66" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="66"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="66" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="66"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="66" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="C24:C30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7F3CA3-9C44-44BF-A86F-D85E9BDCD700}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="9"/>
+    <col min="6" max="6" width="23.5703125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="47" customFormat="1">
+      <c r="A1" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="48">
+        <v>72000</v>
+      </c>
+      <c r="E2" s="40">
+        <v>29</v>
+      </c>
+      <c r="F2" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="48">
+        <v>65000</v>
+      </c>
+      <c r="E3" s="40">
+        <v>31</v>
+      </c>
+      <c r="F3" s="40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="48">
+        <v>78000</v>
+      </c>
+      <c r="E4" s="40">
+        <v>28</v>
+      </c>
+      <c r="F4" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="48">
+        <v>60000</v>
+      </c>
+      <c r="E5" s="40">
+        <v>35</v>
+      </c>
+      <c r="F5" s="40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="48">
+        <v>85000</v>
+      </c>
+      <c r="E6" s="40">
+        <v>26</v>
+      </c>
+      <c r="F6" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="48">
+        <v>55000</v>
+      </c>
+      <c r="E7" s="40">
+        <v>32</v>
+      </c>
+      <c r="F7" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="48">
+        <v>70000</v>
+      </c>
+      <c r="E8" s="40">
+        <v>30</v>
+      </c>
+      <c r="F8" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="48">
+        <v>68000</v>
+      </c>
+      <c r="E9" s="40">
+        <v>33</v>
+      </c>
+      <c r="F9" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="48">
+        <v>90000</v>
+      </c>
+      <c r="E10" s="40">
+        <v>27</v>
+      </c>
+      <c r="F10" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="48">
+        <v>74000</v>
+      </c>
+      <c r="E11" s="40">
+        <v>34</v>
+      </c>
+      <c r="F11" s="40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A4DFC2-1366-4845-830F-A8AF03BC09F7}">
+  <dimension ref="A1:C158"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75">
+      <c r="A3" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+    </row>
+    <row r="20" spans="1:3" s="54" customFormat="1" ht="18.75">
+      <c r="A20" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.5">
+      <c r="A24" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.5">
+      <c r="A27" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.5">
+      <c r="A28" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30">
+      <c r="A29" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.5">
+      <c r="A30" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="56"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="56"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="56"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="56"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="56"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="56"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="56"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="56"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="56"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="56"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="56"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="56"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="56"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="56"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="56"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="56"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="56"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="56"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="56"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="56"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="56"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="56"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="56"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="56"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="56"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="56"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="56"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="56"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="56"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="56"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="56"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="56"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="56"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="56"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="56"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="56"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="56"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="56"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="56"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="56"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="56"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="56"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="56"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="56"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="56"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="56"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="56"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="56"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="56"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="56"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="56"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="56"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="56"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="56"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="56"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="56"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="56"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="56"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="56"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="56"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="56"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="56"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="56"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="56"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="56"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="56"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="56"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="56"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="56"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="56"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="56"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="56"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="56"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="56"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="56"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="56"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="56"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="56"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="56"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="56"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="56"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="56"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="56"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="56"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="56"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="56"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="56"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="56"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="56"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="56"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="56"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="56"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="56"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="56"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="56"/>
+      <c r="B113" s="56"/>
+      <c r="C113" s="56"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="56"/>
+      <c r="B114" s="56"/>
+      <c r="C114" s="56"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="56"/>
+      <c r="B115" s="56"/>
+      <c r="C115" s="56"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="56"/>
+      <c r="B116" s="56"/>
+      <c r="C116" s="56"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="56"/>
+      <c r="B117" s="56"/>
+      <c r="C117" s="56"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="56"/>
+      <c r="B118" s="56"/>
+      <c r="C118" s="56"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="56"/>
+      <c r="B119" s="56"/>
+      <c r="C119" s="56"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="56"/>
+      <c r="B120" s="56"/>
+      <c r="C120" s="56"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="56"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="56"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="56"/>
+      <c r="B122" s="56"/>
+      <c r="C122" s="56"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="56"/>
+      <c r="B123" s="56"/>
+      <c r="C123" s="56"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="56"/>
+      <c r="B124" s="56"/>
+      <c r="C124" s="56"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="56"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="56"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="56"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="56"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="56"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="56"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="56"/>
+      <c r="B128" s="56"/>
+      <c r="C128" s="56"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="56"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="56"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="56"/>
+      <c r="B130" s="56"/>
+      <c r="C130" s="56"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="56"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="56"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="56"/>
+      <c r="B132" s="56"/>
+      <c r="C132" s="56"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="56"/>
+      <c r="B133" s="56"/>
+      <c r="C133" s="56"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="56"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="56"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="56"/>
+      <c r="B135" s="56"/>
+      <c r="C135" s="56"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="56"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="56"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="56"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="56"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="56"/>
+      <c r="B138" s="56"/>
+      <c r="C138" s="56"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="56"/>
+      <c r="B139" s="56"/>
+      <c r="C139" s="56"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="56"/>
+      <c r="B140" s="56"/>
+      <c r="C140" s="56"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="56"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="56"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="56"/>
+      <c r="B142" s="56"/>
+      <c r="C142" s="56"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="56"/>
+      <c r="B143" s="56"/>
+      <c r="C143" s="56"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="56"/>
+      <c r="B144" s="56"/>
+      <c r="C144" s="56"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="56"/>
+      <c r="B145" s="56"/>
+      <c r="C145" s="56"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="56"/>
+      <c r="B146" s="56"/>
+      <c r="C146" s="56"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="56"/>
+      <c r="B147" s="56"/>
+      <c r="C147" s="56"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="56"/>
+      <c r="B148" s="56"/>
+      <c r="C148" s="56"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="56"/>
+      <c r="B149" s="56"/>
+      <c r="C149" s="56"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="56"/>
+      <c r="B150" s="56"/>
+      <c r="C150" s="56"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="56"/>
+      <c r="B151" s="56"/>
+      <c r="C151" s="56"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="56"/>
+      <c r="B152" s="56"/>
+      <c r="C152" s="56"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="56"/>
+      <c r="B153" s="56"/>
+      <c r="C153" s="56"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="56"/>
+      <c r="B154" s="56"/>
+      <c r="C154" s="56"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="56"/>
+      <c r="B155" s="56"/>
+      <c r="C155" s="56"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="56"/>
+      <c r="B156" s="56"/>
+      <c r="C156" s="56"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="56"/>
+      <c r="B157" s="56"/>
+      <c r="C157" s="56"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="56"/>
+      <c r="B158" s="56"/>
+      <c r="C158" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="A38:C158"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>